--- a/video_titles.xlsx
+++ b/video_titles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,54 +432,3084 @@
           <t>Video Title</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Directory Path</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Evil Does Not Exist(2023).1080p.BluRay.YTS.mp4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>/Volumes/Untitled/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>In.Flames.2024.1080p.WEB-DL.DDP5.1.H.264-CINEPHILIA.mp4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>/Volumes/Untitled/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Motel.Destino.2024.WEB-DL.1080p.MUBI.KUCHU.Dream.mkv</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>/Volumes/Untitled/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>The Substance [2024].mkv</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>/Volumes/Untitled/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>The_Man_Who_Could_Not_Remain_Silent_2024_1080p_WEB_DL_AAC2_0_x264.mp4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>/Volumes/Untitled/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mind Session 1.mp4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IMG_2696.MOV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IMG_6369.MOV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IMG_2127.MOV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5a702471-2721-4596-8b0f-09d5fb037b62.mp4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IMG_6976.MOV</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IMG_4387.MOV</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IMG_5728.MOV</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IMG_6235.MOV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IMG_7658.MOV</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IMG_4090.MP4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IMG_4392.MOV</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IMG_0876.MOV</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IMG_0453.MOV</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IMG_4543.MOV</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>99b34490-0517-463f-8474-48aa18adc5d1.mp4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>f648871a-71e5-4b13-9fdb-8b8697357095.mp4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2f359833-a9dc-4cbb-abfb-cd611abab059.mp4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IMG_4569.MOV</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IMG_4541.MOV</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IMG_1808.MOV</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IMG_1798.MOV</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>baf9f7d8-348b-4e12-9421-74e9fb6a7356.mp4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IMG_1883.MP4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IMG_0121.MOV</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IMG_4093.MP4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>IMG_4385.MOV</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IMG_1882.MP4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IMG_0008.MP4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>IMG_6974.MOV</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IMG_3039.MOV</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IMG_3763.MOV</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IMG_3388.MOV</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IMG_0118.MOV</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IMG_7663.MOV</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>65770026730__8B28C464-055A-4CC0-B919-140B63C4992D.MOV</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>IMG_3410.MOV</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>IMG_0119.MOV</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>IMG_1887.MP4</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PXL_20240711_214943982.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>IMG_3389.MOV</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IMG_4551.MOV</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>IMG_5868.MOV</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>IMG_6391.MOV</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>IMG_4792.MOV</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PXL_20240602_103048798.LS.mp4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>88cf2745-ffee-422f-8fd6-96e03054f84a.mp4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>IMG_0741.MP4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ceb76877-6b04-447e-98d2-b9fec4d36fc9.mp4</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>IMG_3412.MOV</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IMG_6972.MOV</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>IMG_0740.MP4</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>IMG_6782.MOV</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>IMG_0250.MOV</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>IMG_4787.MOV</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>460E96EA-FA0E-4A60-826A-DEB405424389.mp4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>IMG_4535.MOV</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DD016512-7CB8-468A-BEDB-266053108968.mp4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>IMG_1920.MOV</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>IMG_6281.MOV</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>IMG_1263.MOV</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>IMG_0381.MOV</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>be8d2dda-a24e-4b09-9c29-d46facdedb8f.mp4</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PXL_20240524_211701667.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ed55ebfb-215b-4ba2-8e9e-882d3cbeae23.mp4</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>IMG_1869.MOV</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>IMG_7598.MOV</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>a5d8da03-2dfa-4478-b605-096762367831.mp4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>IMG_1937.MOV</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>IMG_7361.MOV</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>IMG_6282.MOV</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>IMG_3462.MOV</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>380de68c-9b76-40d7-88df-64d6ed93be07.mp4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ddb462bf-b3b1-4825-ab61-28cf3b0c4eb2.mp4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>IMG_7360.MOV</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>IMG_0094.MP4</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>IMG_1936.MOV</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>IMG_5615.MOV</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>9ae212a7-a514-4b17-a784-83b68981c272.mp4</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>106D22F7-7CD0-4175-BE59-95A576D51D0E.mp4</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>IMG_1932.MOV</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bbc690e5-f46f-4375-9260-2523c8e14967.mp4</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>IMG_1265.MOV</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>10C17788-ADC9-4A3E-917F-861B2D58DEA9.mp4</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>IMG_5572.MOV</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>camvideo_c9b8d4c4.mp4</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>IMG_6669.MOV</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>IMG_6319.MOV</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PXL_20240524_212758968.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>IMG_2255.MP4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>IMG_0971.MOV</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>IMG_2257.MP4</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>IMG_3263.MOV</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>IMG_1845.MOV</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>IMG_1892.MOV</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2c9b6277-9d0b-4384-bec0-47ad03e28b17.mp4</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>IMG_0087.MP4</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>IMG_7367.MOV</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>IMG_0093.MP4</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>IMG_2021.MOV</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PXL_20240712_160041881.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PXL_20240613_070324478.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>IMG_0092.MP4</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>201857e5-4245-4723-8ae3-36eb6423046b.mp4</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>IMG_6326.MOV</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3745541c-d275-4227-b39a-4592b8f0f043.mp4</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>IMG_6332.MOV</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>IMG_2256.MP4</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>IMG_0469.MP4</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>IMG_0470.MP4</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IMG_0969.MOV</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IMG_1849.MOV</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3d3cc876-e2f9-4f0c-8b90-b65339761b81.mp4</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PXL_20240616_084619002.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IMG_0438.MOV</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>IMG_6049.MOV</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IMG_3482.MOV</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PXL_20240626_134017079.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>IMG_6511.MOV</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>126</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>95bf4d4a-1df8-4e0a-aa29-53189de9aaf7.mp4</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>127</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>IMG_6048.MOV</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>128</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>IMG_6921.MOV</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>129</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>IMG_4703.MOV</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>130</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>IMG_4059.MOV</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>131</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>IMG_1860.MOV</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>132</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>IMG_2258.MP4</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>133</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>IMG_3278.MOV</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>134</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>IMG_1876.MOV</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>135</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>IMG_0739.MP4</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>136</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>IMG_2210.MOV</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>137</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>IMG_3481.MOV</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>138</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>aedd399c-f755-4731-be88-4b7dd92f41ee.mp4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>139</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>IMG_1354.MP4</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>140</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>IMG_6671.MOV</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>141</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>IMG_6315.MOV</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>142</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1aa4c5b5-533a-4380-be85-46c12c5b7d95.mp4</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>143</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>IMG_2188.MOV</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>144</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>f3b3fd0d-efda-438c-9230-38c219eed91b.mp4</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>145</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>PXL_20240716_174712204.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>146</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>IMG_1867.MOV</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>147</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>IMG_4704.MOV</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>148</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>A58DAC13-6A0C-46A6-A08E-5B1CE874AA5E.mp4</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>149</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>IMG_1052.MOV</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>150</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>588777c0-865c-4c6a-a90e-b081082a3897.mp4</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>151</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>IMG_0827.MOV</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>152</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>IMG_1635.MP4</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>153</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>IMG_3136.MOV</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>154</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>32107bee-ec28-47b9-99d1-2758baa5dc82.mp4</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>155</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>IMG_1866.MOV</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>156</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>RPReplay_Final1618394373.mp4</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>157</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>IMG_7226.MOV</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>158</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>IMG_2015.MOV</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>159</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>IMG_1859.MOV</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>160</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>IMG_5866.MOV</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>161</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>IMG_5872.MOV</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>162</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1cfce99b-4726-4fd5-ae82-e61288f46f24.mp4</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>163</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>IMG_0261.MOV</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>164</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>IMG_6002.MOV</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>165</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>IMG_1645.MP4</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>166</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>IMG_1644.MP4</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>167</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0eb4d3bf-03f1-4c6c-9b59-274453f76010.mp4</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>168</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>IMG_0604.MP4</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>169</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>35c43f95-5003-460c-842b-f94cf4220266.mp4</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>170</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>IMG_5865.MOV</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>171</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>IMG_3569.MOV</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>172</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>IMG_4789.MOV</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>173</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>43F1560A-6A8E-4CB9-8B58-DEAB35E83F08.mp4</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>174</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>IMG_0470.MOV</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>175</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>IMG_3390.MOV</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>176</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>IMG_4058.MP4</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>177</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>IMG_7109.MOV</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>178</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>IMG_3391.MOV</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>179</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>IMG_1155.MOV</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>180</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>65AFEF46-9C8B-4F0A-A7EC-63D65AABD638.mp4</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>181</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>RPReplay_Final1606876653.mp4</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>182</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>IMG_4788.MOV</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>183</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>IMG_4549.MOV</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>184</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>IMG_5874.MOV</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>185</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BD1E1664-640D-460E-930E-F6251327E5EF.mp4</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>186</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>IMG_4565.MOV</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>187</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>AFA04381-E2B6-4321-8514-8F6A6096E325.mp4</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>188</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>78b03900-e589-4cc5-957f-0ad5ff9e8299.mp4</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>189</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>IMG_1643.MP4</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>190</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>e6fec2ca-42e0-43c8-a5ab-d2742ef022f3.mp4</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>191</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>IMG_3356.MOV</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>192</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>fbbca481-cce5-448a-8982-a0d96610c144.mp4</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>193</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>IMG_1781.MOV</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>194</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>IMG_5875.MOV</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>195</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>IMG_6403.MOV</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>196</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>IMG_0006.MP4</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>197</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>IMG_2088.MOV</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>198</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>IMG_4089.MP4</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>199</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>IMG_6211.MOV</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>200</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>IMG_2710.MOV</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>201</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>PXL_20240524_212600345.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>202</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>PXL_20240524_212132523.TS.mp4</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>203</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>IMG_0265.MOV</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>204</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>IMG_1190.MOV</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>205</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>4db30a21-3d5b-40ab-8d6c-ef445a8f8b23.mp4</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>206</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>IMG_5862.MOV</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>/Users/sauravmaharana/Documents/Google Photos Large Backup/</t>
         </is>
       </c>
     </row>
